--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -579,15 +579,11 @@
           <t>water filtration company</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>69,300,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,350</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2390000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5160</v>
       </c>
       <c r="F4" t="n">
         <v>720</v>
@@ -623,10 +619,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>116000000</v>
+        <v>164000000</v>
       </c>
       <c r="E5" t="n">
-        <v>733</v>
+        <v>789</v>
       </c>
       <c r="F5" t="n">
         <v>720</v>
@@ -662,10 +658,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69200000</v>
+        <v>113000000</v>
       </c>
       <c r="E6" t="n">
-        <v>2290</v>
+        <v>3090</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -701,10 +697,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58000000</v>
+        <v>80900000</v>
       </c>
       <c r="E7" t="n">
-        <v>1720</v>
+        <v>1760</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
@@ -739,15 +735,11 @@
           <t>water filtration supplier</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32,000,000 </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1,240</t>
-        </is>
+      <c r="D8" t="n">
+        <v>32600000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>982</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
@@ -782,13 +774,11 @@
           <t>water filtration suppliers</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 110,000,000 </t>
-        </is>
+      <c r="D9" t="n">
+        <v>120000000</v>
       </c>
       <c r="E9" t="n">
-        <v>3210</v>
+        <v>1710</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
@@ -824,12 +814,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>641000000</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 562</t>
-        </is>
+        <v>680000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>583</v>
       </c>
       <c r="F10" t="n">
         <v>90</v>
@@ -865,10 +853,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>433000000</v>
+        <v>551000000</v>
       </c>
       <c r="E11" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -907,10 +895,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>207000000</v>
+        <v>353000000</v>
       </c>
       <c r="E12" t="n">
-        <v>1040</v>
+        <v>744</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
@@ -946,10 +934,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>212000000</v>
+        <v>364000000</v>
       </c>
       <c r="E13" t="n">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
@@ -985,10 +973,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51400000</v>
+        <v>84000000</v>
       </c>
       <c r="E14" t="n">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -1024,10 +1012,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>208000000</v>
+        <v>389000000</v>
       </c>
       <c r="E15" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
@@ -1063,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42100000</v>
+        <v>65000000</v>
       </c>
       <c r="E16" t="n">
-        <v>476000</v>
+        <v>210</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
@@ -1102,10 +1090,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>91600000</v>
+        <v>116000000</v>
       </c>
       <c r="E17" t="n">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1145,12 +1133,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1190,12 +1178,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1234,10 +1222,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2350000</v>
+        <v>2790000</v>
       </c>
       <c r="E20" t="n">
-        <v>43400</v>
+        <v>40600</v>
       </c>
       <c r="F20" t="n">
         <v>4400</v>
@@ -1273,10 +1261,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>492000</v>
+        <v>333000</v>
       </c>
       <c r="E21" t="n">
-        <v>654</v>
+        <v>424</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
@@ -1312,10 +1300,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1880000</v>
+        <v>2250000</v>
       </c>
       <c r="E22" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1351,10 +1339,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1920000</v>
+        <v>1460000</v>
       </c>
       <c r="E23" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1393,7 +1381,7 @@
         <v>1860000</v>
       </c>
       <c r="E24" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1430,10 +1418,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1960000</v>
+        <v>1970000</v>
       </c>
       <c r="E25" t="n">
-        <v>996</v>
+        <v>919</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
@@ -1469,10 +1457,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1050000</v>
+        <v>765000</v>
       </c>
       <c r="E26" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
@@ -1508,10 +1496,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2120000</v>
+        <v>2970000</v>
       </c>
       <c r="E27" t="n">
-        <v>136000</v>
+        <v>45300</v>
       </c>
       <c r="F27" t="n">
         <v>320</v>
@@ -1547,10 +1535,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>973000</v>
+        <v>744000</v>
       </c>
       <c r="E28" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1586,10 +1574,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>935000</v>
+        <v>694000</v>
       </c>
       <c r="E29" t="n">
-        <v>1050</v>
+        <v>960</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1625,10 +1613,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>588000</v>
+        <v>423000</v>
       </c>
       <c r="E30" t="n">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1664,10 +1652,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4460000</v>
+        <v>4380000</v>
       </c>
       <c r="E31" t="n">
-        <v>430000</v>
+        <v>5480</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1703,10 +1691,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>990000</v>
+        <v>20500000</v>
       </c>
       <c r="E32" t="n">
-        <v>803</v>
+        <v>1070</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1742,10 +1730,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14300000</v>
+        <v>17300000</v>
       </c>
       <c r="E33" t="n">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -1781,10 +1769,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13100000</v>
+        <v>13800000</v>
       </c>
       <c r="E34" t="n">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
@@ -1820,10 +1808,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>984000</v>
+        <v>1010000</v>
       </c>
       <c r="E35" t="n">
-        <v>645</v>
+        <v>1060</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
@@ -1859,10 +1847,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37400000</v>
+        <v>39300000</v>
       </c>
       <c r="E36" t="n">
-        <v>272000</v>
+        <v>1990</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,10 +1889,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30700000</v>
+        <v>38100000</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1940,10 +1928,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>22700000</v>
+        <v>28300000</v>
       </c>
       <c r="E38" t="n">
-        <v>253000</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1979,10 +1967,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>53800000</v>
+        <v>53100000</v>
       </c>
       <c r="E39" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F39" t="n">
         <v>70</v>
@@ -2018,10 +2006,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>135000000</v>
+        <v>77500000</v>
       </c>
       <c r="E40" t="n">
-        <v>3370</v>
+        <v>1100</v>
       </c>
       <c r="F40" t="n">
         <v>320</v>
@@ -2057,10 +2045,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3380000</v>
+        <v>3100000</v>
       </c>
       <c r="E41" t="n">
-        <v>111000</v>
+        <v>9160</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2099,10 +2087,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1170000</v>
+        <v>979000</v>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2138,10 +2126,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>995000</v>
+        <v>896000</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2177,10 +2165,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1350000</v>
+        <v>1130000</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2216,10 +2204,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>737000</v>
+        <v>588000</v>
       </c>
       <c r="E45" t="n">
-        <v>211000</v>
+        <v>1960</v>
       </c>
       <c r="F45" t="n">
         <v>170</v>
@@ -2255,10 +2243,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1020000</v>
+        <v>899000</v>
       </c>
       <c r="E46" t="n">
-        <v>1730</v>
+        <v>5870</v>
       </c>
       <c r="F46" t="n">
         <v>10</v>
@@ -2294,10 +2282,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1100000</v>
+        <v>876000</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2333,10 +2321,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1020000</v>
+        <v>1070000</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2372,10 +2360,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>916000</v>
+        <v>697000</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2411,10 +2399,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1730000</v>
+        <v>669000</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2450,10 +2438,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2820000</v>
+        <v>2780000</v>
       </c>
       <c r="E51" t="n">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="F51" t="n">
         <v>320</v>
@@ -2489,7 +2477,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>36400</v>
+        <v>441000</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -2528,7 +2516,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>515000</v>
+        <v>790000</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -2567,10 +2555,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>117000</v>
+        <v>836000</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2606,10 +2594,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>880000</v>
+        <v>657000</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2646,12 +2634,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2691,12 +2679,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2735,10 +2723,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>874000</v>
+        <v>720000</v>
       </c>
       <c r="E58" t="n">
-        <v>9850</v>
+        <v>8650</v>
       </c>
       <c r="F58" t="n">
         <v>1000</v>
@@ -2774,10 +2762,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10800000</v>
+        <v>8250000</v>
       </c>
       <c r="E59" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2813,10 +2801,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8130000</v>
+        <v>7320000</v>
       </c>
       <c r="E60" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2852,10 +2840,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6360000</v>
+        <v>7400000</v>
       </c>
       <c r="E61" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2891,10 +2879,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7250000</v>
+        <v>6710000</v>
       </c>
       <c r="E62" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2930,10 +2918,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>15100000</v>
+        <v>22400000</v>
       </c>
       <c r="E63" t="n">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="F63" t="n">
         <v>1000</v>
@@ -2970,10 +2958,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>589000</v>
+        <v>7640000</v>
       </c>
       <c r="E64" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3012,10 +3000,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3810000</v>
+        <v>4210000</v>
       </c>
       <c r="E65" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3051,10 +3039,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2070000</v>
+        <v>2200000</v>
       </c>
       <c r="E66" t="n">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3090,10 +3078,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1350000</v>
+        <v>1490000</v>
       </c>
       <c r="E67" t="n">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3129,10 +3117,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1490000</v>
+        <v>1680000</v>
       </c>
       <c r="E68" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3168,10 +3156,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3240000</v>
+        <v>2880000</v>
       </c>
       <c r="E69" t="n">
-        <v>18200</v>
+        <v>15700</v>
       </c>
       <c r="F69" t="n">
         <v>3600</v>
@@ -3207,10 +3195,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14600000</v>
+        <v>17800000</v>
       </c>
       <c r="E70" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3249,7 +3237,7 @@
         <v>1130000</v>
       </c>
       <c r="E71" t="n">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3285,10 +3273,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17200000</v>
+        <v>23000000</v>
       </c>
       <c r="E72" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3325,12 +3313,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3370,12 +3358,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3414,10 +3402,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>12000000</v>
+        <v>11100000</v>
       </c>
       <c r="E75" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3453,10 +3441,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6390000</v>
+        <v>6200000</v>
       </c>
       <c r="E76" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3492,10 +3480,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6040000</v>
+        <v>5410000</v>
       </c>
       <c r="E77" t="n">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3531,10 +3519,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12700000</v>
+        <v>16400000</v>
       </c>
       <c r="E78" t="n">
-        <v>496</v>
+        <v>625</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3571,10 +3559,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>85300000</v>
+        <v>98700000</v>
       </c>
       <c r="E79" t="n">
-        <v>1120</v>
+        <v>1150</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
@@ -3610,10 +3598,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>32800000</v>
+        <v>45100000</v>
       </c>
       <c r="E80" t="n">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="F80" t="n">
         <v>20</v>
@@ -3649,10 +3637,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9440000</v>
+        <v>12700000</v>
       </c>
       <c r="E81" t="n">
-        <v>35000</v>
+        <v>35600</v>
       </c>
       <c r="F81" t="n">
         <v>9900</v>
@@ -3688,10 +3676,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>43500000</v>
+        <v>63400000</v>
       </c>
       <c r="E82" t="n">
-        <v>51600</v>
+        <v>55100</v>
       </c>
       <c r="F82" t="n">
         <v>9900</v>
@@ -3727,10 +3715,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>41600000</v>
+        <v>61000000</v>
       </c>
       <c r="E83" t="n">
-        <v>18800</v>
+        <v>20100</v>
       </c>
       <c r="F83" t="n">
         <v>1000</v>
@@ -3766,10 +3754,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>16700000</v>
+        <v>22500000</v>
       </c>
       <c r="E84" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3805,10 +3793,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17100000</v>
+        <v>14800000</v>
       </c>
       <c r="E85" t="n">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3844,10 +3832,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>16600000</v>
+        <v>21600000</v>
       </c>
       <c r="E86" t="n">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3883,10 +3871,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9420000</v>
+        <v>12600000</v>
       </c>
       <c r="E87" t="n">
-        <v>2300</v>
+        <v>5310</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3925,10 +3913,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5110000</v>
+        <v>5180000</v>
       </c>
       <c r="E88" t="n">
-        <v>2770</v>
+        <v>5380</v>
       </c>
       <c r="F88" t="n">
         <v>170</v>
@@ -3964,10 +3952,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>40600000</v>
+        <v>55700000</v>
       </c>
       <c r="E89" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4003,10 +3991,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>38300000</v>
+        <v>55200000</v>
       </c>
       <c r="E90" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F90" t="n">
         <v>10</v>
@@ -4042,10 +4030,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>21400000</v>
+        <v>30400000</v>
       </c>
       <c r="E91" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
         <v>10</v>
@@ -4081,10 +4069,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>24900000</v>
+        <v>37500000</v>
       </c>
       <c r="E92" t="n">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F92" t="n">
         <v>10</v>
@@ -4120,10 +4108,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10300000</v>
+        <v>47000000</v>
       </c>
       <c r="E93" t="n">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F93" t="n">
         <v>10</v>
@@ -4160,12 +4148,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4205,12 +4193,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4249,10 +4237,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4040000</v>
+        <v>4000000</v>
       </c>
       <c r="E96" t="n">
-        <v>31900</v>
+        <v>14600</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4291,7 +4279,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6910000</v>
+        <v>5620000</v>
       </c>
       <c r="E97" t="n">
         <v>7</v>
@@ -4330,10 +4318,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3990000</v>
+        <v>4030000</v>
       </c>
       <c r="E98" t="n">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4369,10 +4357,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4140000</v>
+        <v>4220000</v>
       </c>
       <c r="E99" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4408,10 +4396,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1710000</v>
+        <v>1980000</v>
       </c>
       <c r="E100" t="n">
-        <v>15200</v>
+        <v>7940</v>
       </c>
       <c r="F100" t="n">
         <v>110</v>
@@ -4447,7 +4435,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2780000</v>
+        <v>3340000</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -4486,10 +4474,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1370000</v>
+        <v>1980000</v>
       </c>
       <c r="E102" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4525,10 +4513,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1640000</v>
+        <v>1720000</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4565,10 +4553,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>31000000</v>
+        <v>27200000</v>
       </c>
       <c r="E104" t="n">
-        <v>4580</v>
+        <v>5280</v>
       </c>
       <c r="F104" t="n">
         <v>720</v>
@@ -4604,10 +4592,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>9320000</v>
+        <v>8540000</v>
       </c>
       <c r="E105" t="n">
-        <v>1050</v>
+        <v>1110</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4646,10 +4634,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>130000000</v>
+        <v>180000000</v>
       </c>
       <c r="E106" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="F106" t="n">
         <v>10</v>
@@ -4685,10 +4673,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>124000000</v>
+        <v>238000000</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4724,10 +4712,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>38300000</v>
+        <v>53700000</v>
       </c>
       <c r="E108" t="n">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4763,10 +4751,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>39600000</v>
+        <v>54800000</v>
       </c>
       <c r="E109" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4802,10 +4790,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>89300000</v>
+        <v>154000000</v>
       </c>
       <c r="E110" t="n">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="F110" t="n">
         <v>10</v>
@@ -4841,10 +4829,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>85000000</v>
+        <v>148000000</v>
       </c>
       <c r="E111" t="n">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="F111" t="n">
         <v>10</v>
@@ -4880,10 +4868,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9180000</v>
+        <v>12700000</v>
       </c>
       <c r="E112" t="n">
-        <v>38400</v>
+        <v>35600</v>
       </c>
       <c r="F112" t="n">
         <v>9900</v>
@@ -4919,10 +4907,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2110000</v>
+        <v>1810000</v>
       </c>
       <c r="E113" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4958,10 +4946,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4150000</v>
+        <v>5880000</v>
       </c>
       <c r="E114" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4997,10 +4985,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4180000</v>
+        <v>5070000</v>
       </c>
       <c r="E115" t="n">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5036,10 +5024,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>623000</v>
+        <v>564000</v>
       </c>
       <c r="E116" t="n">
-        <v>5240</v>
+        <v>5080</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5078,10 +5066,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>574000</v>
+        <v>470000</v>
       </c>
       <c r="E117" t="n">
-        <v>112000</v>
+        <v>12100</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5120,10 +5108,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3400000</v>
+        <v>3350000</v>
       </c>
       <c r="E118" t="n">
-        <v>429000</v>
+        <v>11000</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5162,10 +5150,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1450000</v>
+        <v>1380000</v>
       </c>
       <c r="E119" t="n">
-        <v>4450</v>
+        <v>5210</v>
       </c>
       <c r="F119" t="n">
         <v>6600</v>
@@ -5201,10 +5189,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2650000</v>
+        <v>2750000</v>
       </c>
       <c r="E120" t="n">
-        <v>4040</v>
+        <v>3330</v>
       </c>
       <c r="F120" t="n">
         <v>5400</v>
@@ -5240,10 +5228,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3630000</v>
+        <v>3910000</v>
       </c>
       <c r="E121" t="n">
-        <v>97500</v>
+        <v>11400</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5282,10 +5270,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6180000</v>
+        <v>6530000</v>
       </c>
       <c r="E122" t="n">
-        <v>1020</v>
+        <v>3280</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5324,10 +5312,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>240000</v>
+        <v>188000</v>
       </c>
       <c r="E123" t="n">
-        <v>2550</v>
+        <v>9</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5366,10 +5354,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1690000</v>
+        <v>1330000</v>
       </c>
       <c r="E124" t="n">
-        <v>2130</v>
+        <v>2190</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -5405,10 +5393,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>147000</v>
+        <v>127000</v>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -5444,10 +5432,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>961000</v>
+        <v>981000</v>
       </c>
       <c r="E126" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -5483,10 +5471,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>88300</v>
+        <v>91700</v>
       </c>
       <c r="E127" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5523,12 +5511,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5568,12 +5556,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5612,10 +5600,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>345000000</v>
+        <v>749000000</v>
       </c>
       <c r="E130" t="n">
-        <v>11700</v>
+        <v>13200</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5654,10 +5642,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>393000000</v>
+        <v>680000000</v>
       </c>
       <c r="E131" t="n">
-        <v>692</v>
+        <v>785</v>
       </c>
       <c r="F131" t="n">
         <v>1300</v>
@@ -5693,10 +5681,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>88500000</v>
+        <v>169000000</v>
       </c>
       <c r="E132" t="n">
-        <v>2080</v>
+        <v>2270</v>
       </c>
       <c r="F132" t="n">
         <v>320</v>
@@ -5732,10 +5720,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>46300000</v>
+        <v>82600000</v>
       </c>
       <c r="E133" t="n">
-        <v>4000</v>
+        <v>4830</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5774,10 +5762,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>42900000</v>
+        <v>68100000</v>
       </c>
       <c r="E134" t="n">
-        <v>1340</v>
+        <v>1140</v>
       </c>
       <c r="F134" t="n">
         <v>5400</v>
@@ -5813,10 +5801,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>96900000</v>
+        <v>118000000</v>
       </c>
       <c r="E135" t="n">
-        <v>1520</v>
+        <v>1330</v>
       </c>
       <c r="F135" t="n">
         <v>5400</v>
@@ -5852,10 +5840,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>30200000</v>
+        <v>51000000</v>
       </c>
       <c r="E136" t="n">
-        <v>2380</v>
+        <v>6860</v>
       </c>
       <c r="F136" t="n">
         <v>170</v>
@@ -5891,10 +5879,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>33200000</v>
+        <v>54000000</v>
       </c>
       <c r="E137" t="n">
-        <v>1730</v>
+        <v>1520</v>
       </c>
       <c r="F137" t="n">
         <v>50</v>
@@ -5931,10 +5919,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>136000000</v>
+        <v>296000000</v>
       </c>
       <c r="E138" t="n">
-        <v>140000</v>
+        <v>177000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5973,10 +5961,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>393000000</v>
+        <v>443000000</v>
       </c>
       <c r="E139" t="n">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="F139" t="n">
         <v>50</v>
@@ -6012,13 +6000,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>351000000</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
-</t>
-        </is>
+        <v>521000000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>317</v>
       </c>
       <c r="F140" t="n">
         <v>50</v>
@@ -6054,10 +6039,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>44300000</v>
+        <v>69000000</v>
       </c>
       <c r="E141" t="n">
-        <v>797</v>
+        <v>696</v>
       </c>
       <c r="F141" t="n">
         <v>10</v>
@@ -6093,10 +6078,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>148000000</v>
+        <v>289000000</v>
       </c>
       <c r="E142" t="n">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="F142" t="n">
         <v>10</v>
@@ -6132,10 +6117,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>145000000</v>
+        <v>239000000</v>
       </c>
       <c r="E143" t="n">
-        <v>1250</v>
+        <v>1080</v>
       </c>
       <c r="F143" t="n">
         <v>10</v>
@@ -6171,10 +6156,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>193000000</v>
+        <v>341000000</v>
       </c>
       <c r="E144" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="F144" t="n">
         <v>10</v>
@@ -6210,7 +6195,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2390000000</v>
+        <v>835000000</v>
       </c>
       <c r="E145" t="n">
         <v>1890</v>
@@ -6249,10 +6234,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>22100000</v>
+        <v>29700000</v>
       </c>
       <c r="E146" t="n">
-        <v>652</v>
+        <v>1000</v>
       </c>
       <c r="F146" t="n">
         <v>10</v>
@@ -6288,10 +6273,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2310000000</v>
+        <v>614000000</v>
       </c>
       <c r="E147" t="n">
-        <v>62600</v>
+        <v>63500</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6330,10 +6315,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1490000</v>
+        <v>1590000</v>
       </c>
       <c r="E148" t="n">
-        <v>235000</v>
+        <v>79</v>
       </c>
       <c r="F148" t="n">
         <v>110</v>
@@ -6369,10 +6354,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>27400000</v>
+        <v>42200000</v>
       </c>
       <c r="E149" t="n">
-        <v>5800</v>
+        <v>5460</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6411,10 +6396,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>41500000</v>
+        <v>67000000</v>
       </c>
       <c r="E150" t="n">
-        <v>1140</v>
+        <v>949</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6453,10 +6438,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13700000</v>
+        <v>22900000</v>
       </c>
       <c r="E151" t="n">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="F151" t="n">
         <v>260</v>
@@ -6492,10 +6477,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>13800000</v>
+        <v>20700000</v>
       </c>
       <c r="E152" t="n">
-        <v>52500</v>
+        <v>51500</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6534,10 +6519,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>11700000</v>
+        <v>14300000</v>
       </c>
       <c r="E153" t="n">
-        <v>10600</v>
+        <v>8860</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6576,10 +6561,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>17600000</v>
+        <v>19200000</v>
       </c>
       <c r="E154" t="n">
-        <v>11300</v>
+        <v>12800</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6618,10 +6603,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5310000</v>
+        <v>5840000</v>
       </c>
       <c r="E155" t="n">
-        <v>16000</v>
+        <v>13300</v>
       </c>
       <c r="F155" t="n">
         <v>70</v>
@@ -6657,10 +6642,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1260000</v>
+        <v>1030000</v>
       </c>
       <c r="E156" t="n">
-        <v>1580</v>
+        <v>1940</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -6696,10 +6681,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>32600000</v>
+        <v>27100000</v>
       </c>
       <c r="E157" t="n">
-        <v>29000</v>
+        <v>14900</v>
       </c>
       <c r="F157" t="n">
         <v>590</v>
@@ -6735,10 +6720,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>138000000</v>
+        <v>200000000</v>
       </c>
       <c r="E158" t="n">
-        <v>80200</v>
+        <v>75500</v>
       </c>
       <c r="F158" t="n">
         <v>6600</v>
@@ -6774,10 +6759,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>173000000</v>
+        <v>252000000</v>
       </c>
       <c r="E159" t="n">
-        <v>524000</v>
+        <v>7810</v>
       </c>
       <c r="F159" t="n">
         <v>2900</v>
@@ -6813,10 +6798,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>65000000</v>
+        <v>112000000</v>
       </c>
       <c r="E160" t="n">
-        <v>16600</v>
+        <v>14700</v>
       </c>
       <c r="F160" t="n">
         <v>1300</v>
@@ -6853,10 +6838,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>45100000</v>
+        <v>68100000</v>
       </c>
       <c r="E161" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F161" t="n">
         <v>480</v>
@@ -6893,12 +6878,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6940,12 +6925,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6984,10 +6969,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>199000000</v>
+        <v>319000000</v>
       </c>
       <c r="E164" t="n">
-        <v>83200</v>
+        <v>101000</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7026,10 +7011,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>61000000</v>
+        <v>68400000</v>
       </c>
       <c r="E165" t="n">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -7065,10 +7050,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>15800000</v>
+        <v>20900000</v>
       </c>
       <c r="E166" t="n">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -7104,10 +7089,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>59400000</v>
+        <v>80200000</v>
       </c>
       <c r="E167" t="n">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -7143,10 +7128,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>13500000</v>
+        <v>14700000</v>
       </c>
       <c r="E168" t="n">
-        <v>17200</v>
+        <v>14100</v>
       </c>
       <c r="F168" t="n">
         <v>590</v>
@@ -7183,10 +7168,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>23200000</v>
+        <v>37100000</v>
       </c>
       <c r="E169" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="F169" t="n">
         <v>110</v>
@@ -7222,10 +7207,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>20000000</v>
+        <v>23200000</v>
       </c>
       <c r="E170" t="n">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="F170" t="n">
         <v>30</v>
@@ -7261,10 +7246,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>123000000</v>
+        <v>179000000</v>
       </c>
       <c r="E171" t="n">
-        <v>35000</v>
+        <v>37700</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7303,10 +7288,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>17000000</v>
+        <v>22200000</v>
       </c>
       <c r="E172" t="n">
-        <v>4100</v>
+        <v>3620</v>
       </c>
       <c r="F172" t="n">
         <v>1300</v>
@@ -7342,10 +7327,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>14500000</v>
+        <v>22800000</v>
       </c>
       <c r="E173" t="n">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7384,10 +7369,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3880000</v>
+        <v>3930000</v>
       </c>
       <c r="E174" t="n">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7426,10 +7411,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>16700000</v>
+        <v>24800000</v>
       </c>
       <c r="E175" t="n">
-        <v>23200</v>
+        <v>21000</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7468,10 +7453,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6950000</v>
+        <v>7070000</v>
       </c>
       <c r="E176" t="n">
-        <v>900</v>
+        <v>1040</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7511,12 +7496,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7556,12 +7541,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7600,10 +7585,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>3570000</v>
+        <v>2500000</v>
       </c>
       <c r="E179" t="n">
-        <v>3960</v>
+        <v>3360</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7642,10 +7627,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1290000</v>
+        <v>1270000</v>
       </c>
       <c r="E180" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7681,10 +7666,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1290000</v>
+        <v>1190000</v>
       </c>
       <c r="E181" t="n">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7720,7 +7705,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1360000</v>
+        <v>1600000</v>
       </c>
       <c r="E182" t="n">
         <v>9</v>
@@ -7759,10 +7744,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>124000000</v>
+        <v>151000000</v>
       </c>
       <c r="E183" t="n">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="F183" t="n">
         <v>2900</v>
@@ -7798,10 +7783,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>7450000</v>
+        <v>8510000</v>
       </c>
       <c r="E184" t="n">
-        <v>4360</v>
+        <v>3590</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7840,10 +7825,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>9370000</v>
+        <v>10400000</v>
       </c>
       <c r="E185" t="n">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7882,10 +7867,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>7140000</v>
+        <v>6210000</v>
       </c>
       <c r="E186" t="n">
-        <v>13600</v>
+        <v>12600</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7924,10 +7909,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1050000</v>
+        <v>1090000</v>
       </c>
       <c r="E187" t="n">
-        <v>19400</v>
+        <v>21200</v>
       </c>
       <c r="F187" t="n">
         <v>20</v>
@@ -7964,12 +7949,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8009,12 +7994,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>空值</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8053,10 +8038,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>4600000</v>
+        <v>4800000</v>
       </c>
       <c r="E190" t="n">
-        <v>15700</v>
+        <v>16700</v>
       </c>
       <c r="F190" t="n">
         <v>170</v>
@@ -8092,10 +8077,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5650000</v>
+        <v>5860000</v>
       </c>
       <c r="E191" t="n">
-        <v>16300</v>
+        <v>14400</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8134,10 +8119,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6620000</v>
+        <v>7070000</v>
       </c>
       <c r="E192" t="n">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="F192" t="n">
         <v>20</v>
@@ -8173,10 +8158,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>6220000</v>
+        <v>4880000</v>
       </c>
       <c r="E193" t="n">
-        <v>16500</v>
+        <v>18400</v>
       </c>
       <c r="F193" t="n">
         <v>50</v>
@@ -8212,10 +8197,10 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5290000</v>
+        <v>5450000</v>
       </c>
       <c r="E194" t="n">
-        <v>17100</v>
+        <v>15100</v>
       </c>
       <c r="F194" t="n">
         <v>110</v>
@@ -8251,10 +8236,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>5260000</v>
+        <v>4710000</v>
       </c>
       <c r="E195" t="n">
-        <v>11600</v>
+        <v>9340</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8293,10 +8278,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>36600000</v>
+        <v>65900000</v>
       </c>
       <c r="E196" t="n">
-        <v>28300</v>
+        <v>33600</v>
       </c>
       <c r="F196" t="n">
         <v>4400</v>
@@ -8332,10 +8317,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9320000</v>
+        <v>9050000</v>
       </c>
       <c r="E197" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -8371,10 +8356,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>8160000</v>
+        <v>6970000</v>
       </c>
       <c r="E198" t="n">
-        <v>704</v>
+        <v>634</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8410,10 +8395,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>7880000</v>
+        <v>10700000</v>
       </c>
       <c r="E199" t="n">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8449,10 +8434,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>7140000</v>
+        <v>6200000</v>
       </c>
       <c r="E200" t="n">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8488,10 +8473,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5770000</v>
+        <v>5400000</v>
       </c>
       <c r="E201" t="n">
-        <v>8470</v>
+        <v>6440</v>
       </c>
       <c r="F201" t="n">
         <v>90</v>
@@ -8527,10 +8512,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>5960000</v>
+        <v>6090000</v>
       </c>
       <c r="E202" t="n">
-        <v>8470</v>
+        <v>6600</v>
       </c>
       <c r="F202" t="n">
         <v>50</v>
@@ -8566,10 +8551,10 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>6690000</v>
+        <v>5710000</v>
       </c>
       <c r="E203" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -8605,10 +8590,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5050000</v>
+        <v>4410000</v>
       </c>
       <c r="E204" t="n">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -8644,10 +8629,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>4960000</v>
+        <v>3730000</v>
       </c>
       <c r="E205" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -8683,10 +8668,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3950000</v>
+        <v>2850000</v>
       </c>
       <c r="E206" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2390000000</v>
+        <v>5460000000</v>
       </c>
       <c r="E4" t="n">
-        <v>5160</v>
+        <v>5590</v>
       </c>
       <c r="F4" t="n">
         <v>720</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>164000000</v>
+        <v>78500000</v>
       </c>
       <c r="E5" t="n">
-        <v>789</v>
+        <v>703</v>
       </c>
       <c r="F5" t="n">
         <v>720</v>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>113000000</v>
+        <v>61800000</v>
       </c>
       <c r="E6" t="n">
-        <v>3090</v>
+        <v>2370</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80900000</v>
+        <v>52400000</v>
       </c>
       <c r="E7" t="n">
         <v>1760</v>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32600000</v>
+        <v>25500000</v>
       </c>
       <c r="E8" t="n">
-        <v>982</v>
+        <v>1050</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>120000000</v>
+        <v>64800000</v>
       </c>
       <c r="E9" t="n">
-        <v>1710</v>
+        <v>3410</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>680000000</v>
+        <v>46500000</v>
       </c>
       <c r="E10" t="n">
-        <v>583</v>
+        <v>428</v>
       </c>
       <c r="F10" t="n">
         <v>90</v>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551000000</v>
+        <v>93500000</v>
       </c>
       <c r="E11" t="n">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>353000000</v>
+        <v>203000000</v>
       </c>
       <c r="E12" t="n">
-        <v>744</v>
+        <v>1030</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>364000000</v>
+        <v>184000000</v>
       </c>
       <c r="E13" t="n">
-        <v>566</v>
+        <v>621</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>84000000</v>
+        <v>52900000</v>
       </c>
       <c r="E14" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>389000000</v>
+        <v>174000000</v>
       </c>
       <c r="E15" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65000000</v>
+        <v>43600000</v>
       </c>
       <c r="E16" t="n">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>116000000</v>
+        <v>75100000</v>
       </c>
       <c r="E17" t="n">
-        <v>11100</v>
+        <v>12400</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2790000</v>
+        <v>2030000</v>
       </c>
       <c r="E20" t="n">
-        <v>40600</v>
+        <v>42900</v>
       </c>
       <c r="F20" t="n">
         <v>4400</v>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>333000</v>
+        <v>390000</v>
       </c>
       <c r="E21" t="n">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2250000</v>
+        <v>1910000</v>
       </c>
       <c r="E22" t="n">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1460000</v>
+        <v>1470000</v>
       </c>
       <c r="E23" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1860000</v>
+        <v>1670000</v>
       </c>
       <c r="E24" t="n">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1970000</v>
+        <v>1900000</v>
       </c>
       <c r="E25" t="n">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>765000</v>
+        <v>720000</v>
       </c>
       <c r="E26" t="n">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2970000</v>
+        <v>2330000</v>
       </c>
       <c r="E27" t="n">
-        <v>45300</v>
+        <v>45600</v>
       </c>
       <c r="F27" t="n">
         <v>320</v>
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>744000</v>
+        <v>726000</v>
       </c>
       <c r="E28" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>694000</v>
+        <v>699000</v>
       </c>
       <c r="E29" t="n">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>423000</v>
+        <v>334000</v>
       </c>
       <c r="E30" t="n">
         <v>432</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4380000</v>
+        <v>4100000</v>
       </c>
       <c r="E31" t="n">
-        <v>5480</v>
+        <v>1540</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20500000</v>
+        <v>14300000</v>
       </c>
       <c r="E32" t="n">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="F32" t="n">
         <v>20</v>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17300000</v>
+        <v>13000000</v>
       </c>
       <c r="E33" t="n">
-        <v>709</v>
+        <v>866</v>
       </c>
       <c r="F33" t="n">
         <v>20</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13800000</v>
+        <v>903000</v>
       </c>
       <c r="E34" t="n">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="F34" t="n">
         <v>10</v>
@@ -1808,10 +1808,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1010000</v>
+        <v>797000</v>
       </c>
       <c r="E35" t="n">
-        <v>1060</v>
+        <v>700</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
@@ -1847,10 +1847,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>39300000</v>
+        <v>33200000</v>
       </c>
       <c r="E36" t="n">
-        <v>1990</v>
+        <v>2780</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38100000</v>
+        <v>26400000</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28300000</v>
+        <v>19000000</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>53100000</v>
+        <v>33400000</v>
       </c>
       <c r="E39" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" t="n">
         <v>70</v>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>77500000</v>
+        <v>88400000</v>
       </c>
       <c r="E40" t="n">
         <v>1100</v>
@@ -2045,10 +2045,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3100000</v>
+        <v>3050000</v>
       </c>
       <c r="E41" t="n">
-        <v>9160</v>
+        <v>2360</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>979000</v>
+        <v>862000</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>896000</v>
+        <v>785000</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1130000</v>
+        <v>552000</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -2204,10 +2204,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>588000</v>
+        <v>538000</v>
       </c>
       <c r="E45" t="n">
-        <v>1960</v>
+        <v>1740</v>
       </c>
       <c r="F45" t="n">
         <v>170</v>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>899000</v>
+        <v>701000</v>
       </c>
       <c r="E46" t="n">
-        <v>5870</v>
+        <v>2060</v>
       </c>
       <c r="F46" t="n">
         <v>10</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>876000</v>
+        <v>927000</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1070000</v>
+        <v>604000</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>697000</v>
+        <v>572000</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>669000</v>
+        <v>782000</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2780000</v>
+        <v>3560000</v>
       </c>
       <c r="E51" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F51" t="n">
         <v>320</v>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>441000</v>
+        <v>419000</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>790000</v>
+        <v>871000</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>836000</v>
+        <v>973000</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>657000</v>
+        <v>625000</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>720000</v>
+        <v>825000</v>
       </c>
       <c r="E58" t="n">
-        <v>8650</v>
+        <v>9890</v>
       </c>
       <c r="F58" t="n">
         <v>1000</v>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8250000</v>
+        <v>7340000</v>
       </c>
       <c r="E59" t="n">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7320000</v>
+        <v>8410000</v>
       </c>
       <c r="E60" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7400000</v>
+        <v>6790000</v>
       </c>
       <c r="E61" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6710000</v>
+        <v>6530000</v>
       </c>
       <c r="E62" t="n">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>22400000</v>
+        <v>13700000</v>
       </c>
       <c r="E63" t="n">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="F63" t="n">
         <v>1000</v>
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7640000</v>
+        <v>5220000</v>
       </c>
       <c r="E64" t="n">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3000,10 +3000,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4210000</v>
+        <v>4270000</v>
       </c>
       <c r="E65" t="n">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2200000</v>
+        <v>3940000</v>
       </c>
       <c r="E66" t="n">
-        <v>543</v>
+        <v>658</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1490000</v>
+        <v>3470000</v>
       </c>
       <c r="E67" t="n">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1680000</v>
+        <v>1130000</v>
       </c>
       <c r="E68" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2880000</v>
+        <v>2810000</v>
       </c>
       <c r="E69" t="n">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="F69" t="n">
         <v>3600</v>
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17800000</v>
+        <v>912000</v>
       </c>
       <c r="E70" t="n">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1130000</v>
+        <v>889000</v>
       </c>
       <c r="E71" t="n">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>23000000</v>
+        <v>13900000</v>
       </c>
       <c r="E72" t="n">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11100000</v>
+        <v>9650000</v>
       </c>
       <c r="E75" t="n">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6200000</v>
+        <v>5280000</v>
       </c>
       <c r="E76" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5410000</v>
+        <v>5630000</v>
       </c>
       <c r="E77" t="n">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>16400000</v>
+        <v>12200000</v>
       </c>
       <c r="E78" t="n">
-        <v>625</v>
+        <v>527</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>98700000</v>
+        <v>26800000</v>
       </c>
       <c r="E79" t="n">
-        <v>1150</v>
+        <v>1210</v>
       </c>
       <c r="F79" t="n">
         <v>50</v>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>45100000</v>
+        <v>25900000</v>
       </c>
       <c r="E80" t="n">
-        <v>838</v>
+        <v>800</v>
       </c>
       <c r="F80" t="n">
         <v>20</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>12700000</v>
+        <v>7690000</v>
       </c>
       <c r="E81" t="n">
-        <v>35600</v>
+        <v>37400</v>
       </c>
       <c r="F81" t="n">
         <v>9900</v>
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>63400000</v>
+        <v>28200000</v>
       </c>
       <c r="E82" t="n">
-        <v>55100</v>
+        <v>48100</v>
       </c>
       <c r="F82" t="n">
         <v>9900</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>61000000</v>
+        <v>36100000</v>
       </c>
       <c r="E83" t="n">
-        <v>20100</v>
+        <v>18600</v>
       </c>
       <c r="F83" t="n">
         <v>1000</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>22500000</v>
+        <v>6220000</v>
       </c>
       <c r="E84" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>14800000</v>
       </c>
       <c r="E85" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>21600000</v>
+        <v>13600000</v>
       </c>
       <c r="E86" t="n">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12600000</v>
+        <v>8080000</v>
       </c>
       <c r="E87" t="n">
-        <v>5310</v>
+        <v>2040</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5180000</v>
+        <v>6240000</v>
       </c>
       <c r="E88" t="n">
-        <v>5380</v>
+        <v>2020</v>
       </c>
       <c r="F88" t="n">
         <v>170</v>
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>55700000</v>
+        <v>28500000</v>
       </c>
       <c r="E89" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>55200000</v>
+        <v>37100000</v>
       </c>
       <c r="E90" t="n">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F90" t="n">
         <v>10</v>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30400000</v>
+        <v>33000000</v>
       </c>
       <c r="E91" t="n">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="F91" t="n">
         <v>10</v>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>37500000</v>
+        <v>28200000</v>
       </c>
       <c r="E92" t="n">
-        <v>540</v>
+        <v>631</v>
       </c>
       <c r="F92" t="n">
         <v>10</v>
@@ -4108,10 +4108,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>47000000</v>
+        <v>32900000</v>
       </c>
       <c r="E93" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F93" t="n">
         <v>10</v>
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4000000</v>
+        <v>3890000</v>
       </c>
       <c r="E96" t="n">
-        <v>14600</v>
+        <v>15700</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5620000</v>
+        <v>5890000</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4030000</v>
+        <v>3280000</v>
       </c>
       <c r="E98" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4220000</v>
+        <v>4420000</v>
       </c>
       <c r="E99" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1980000</v>
+        <v>1930000</v>
       </c>
       <c r="E100" t="n">
-        <v>7940</v>
+        <v>6180</v>
       </c>
       <c r="F100" t="n">
         <v>110</v>
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3340000</v>
+        <v>3020000</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1980000</v>
+        <v>1760000</v>
       </c>
       <c r="E102" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4513,10 +4513,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1720000</v>
+        <v>1700000</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>27200000</v>
+        <v>20200000</v>
       </c>
       <c r="E104" t="n">
-        <v>5280</v>
+        <v>4830</v>
       </c>
       <c r="F104" t="n">
         <v>720</v>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8540000</v>
+        <v>7320000</v>
       </c>
       <c r="E105" t="n">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>180000000</v>
+        <v>112000000</v>
       </c>
       <c r="E106" t="n">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="F106" t="n">
         <v>10</v>
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>238000000</v>
+        <v>131000000</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>53700000</v>
+        <v>36500000</v>
       </c>
       <c r="E108" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>54800000</v>
+        <v>67100000</v>
       </c>
       <c r="E109" t="n">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>154000000</v>
+        <v>79400000</v>
       </c>
       <c r="E110" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F110" t="n">
         <v>10</v>
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>148000000</v>
+        <v>86400000</v>
       </c>
       <c r="E111" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F111" t="n">
         <v>10</v>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>12700000</v>
+        <v>7690000</v>
       </c>
       <c r="E112" t="n">
-        <v>35600</v>
+        <v>37400</v>
       </c>
       <c r="F112" t="n">
         <v>9900</v>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1810000</v>
+        <v>1720000</v>
       </c>
       <c r="E113" t="n">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5880000</v>
+        <v>4330000</v>
       </c>
       <c r="E114" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4985,10 +4985,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5070000</v>
+        <v>4370000</v>
       </c>
       <c r="E115" t="n">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5024,10 +5024,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>564000</v>
+        <v>550000</v>
       </c>
       <c r="E116" t="n">
-        <v>5080</v>
+        <v>5270</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>470000</v>
+        <v>468000</v>
       </c>
       <c r="E117" t="n">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5108,10 +5108,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3350000</v>
+        <v>5200000</v>
       </c>
       <c r="E118" t="n">
-        <v>11000</v>
+        <v>14800</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1380000</v>
+        <v>1500000</v>
       </c>
       <c r="E119" t="n">
-        <v>5210</v>
+        <v>5030</v>
       </c>
       <c r="F119" t="n">
         <v>6600</v>
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2750000</v>
+        <v>2450000</v>
       </c>
       <c r="E120" t="n">
-        <v>3330</v>
+        <v>3550</v>
       </c>
       <c r="F120" t="n">
         <v>5400</v>
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3910000</v>
+        <v>3100000</v>
       </c>
       <c r="E121" t="n">
-        <v>11400</v>
+        <v>10200</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5270,10 +5270,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6530000</v>
+        <v>4240000</v>
       </c>
       <c r="E122" t="n">
-        <v>3280</v>
+        <v>1110</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5312,10 +5312,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>188000</v>
+        <v>222000</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>2230</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1330000</v>
+        <v>1270000</v>
       </c>
       <c r="E124" t="n">
-        <v>2190</v>
+        <v>2570</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>127000</v>
+        <v>136000</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>981000</v>
+        <v>914000</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>91700</v>
+        <v>99700</v>
       </c>
       <c r="E127" t="n">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5600,10 +5600,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>749000000</v>
+        <v>382000000</v>
       </c>
       <c r="E130" t="n">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>680000000</v>
+        <v>386000000</v>
       </c>
       <c r="E131" t="n">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="F131" t="n">
         <v>1300</v>
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>169000000</v>
+        <v>75900000</v>
       </c>
       <c r="E132" t="n">
-        <v>2270</v>
+        <v>1720</v>
       </c>
       <c r="F132" t="n">
         <v>320</v>
@@ -5720,10 +5720,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>82600000</v>
+        <v>45000000</v>
       </c>
       <c r="E133" t="n">
-        <v>4830</v>
+        <v>1760</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>68100000</v>
+        <v>41000000</v>
       </c>
       <c r="E134" t="n">
-        <v>1140</v>
+        <v>1090</v>
       </c>
       <c r="F134" t="n">
         <v>5400</v>
@@ -5801,10 +5801,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>118000000</v>
+        <v>76800000</v>
       </c>
       <c r="E135" t="n">
-        <v>1330</v>
+        <v>1600</v>
       </c>
       <c r="F135" t="n">
         <v>5400</v>
@@ -5840,10 +5840,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>51000000</v>
+        <v>32500000</v>
       </c>
       <c r="E136" t="n">
-        <v>6860</v>
+        <v>1840</v>
       </c>
       <c r="F136" t="n">
         <v>170</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>54000000</v>
+        <v>36600000</v>
       </c>
       <c r="E137" t="n">
         <v>1520</v>
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>296000000</v>
+        <v>150000000</v>
       </c>
       <c r="E138" t="n">
-        <v>177000</v>
+        <v>136000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>443000000</v>
+        <v>209000000</v>
       </c>
       <c r="E139" t="n">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="F139" t="n">
         <v>50</v>
@@ -6000,10 +6000,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>521000000</v>
+        <v>370000000</v>
       </c>
       <c r="E140" t="n">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F140" t="n">
         <v>50</v>
@@ -6039,10 +6039,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>69000000</v>
+        <v>42700000</v>
       </c>
       <c r="E141" t="n">
-        <v>696</v>
+        <v>1070</v>
       </c>
       <c r="F141" t="n">
         <v>10</v>
@@ -6078,10 +6078,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>289000000</v>
+        <v>130000000</v>
       </c>
       <c r="E142" t="n">
-        <v>721</v>
+        <v>834</v>
       </c>
       <c r="F142" t="n">
         <v>10</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>239000000</v>
+        <v>125000000</v>
       </c>
       <c r="E143" t="n">
         <v>1080</v>
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>341000000</v>
+        <v>117000000</v>
       </c>
       <c r="E144" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="F144" t="n">
         <v>10</v>
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>835000000</v>
+        <v>2030000000</v>
       </c>
       <c r="E145" t="n">
-        <v>1890</v>
+        <v>1940</v>
       </c>
       <c r="F145" t="n">
         <v>9900</v>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>29700000</v>
+        <v>19900000</v>
       </c>
       <c r="E146" t="n">
-        <v>1000</v>
+        <v>781</v>
       </c>
       <c r="F146" t="n">
         <v>10</v>
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>614000000</v>
+        <v>2510000000</v>
       </c>
       <c r="E147" t="n">
-        <v>63500</v>
+        <v>60400</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6315,10 +6315,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1590000</v>
+        <v>2040000</v>
       </c>
       <c r="E148" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F148" t="n">
         <v>110</v>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>42200000</v>
+        <v>27700000</v>
       </c>
       <c r="E149" t="n">
-        <v>5460</v>
+        <v>6460</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6396,10 +6396,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>67000000</v>
+        <v>25500000</v>
       </c>
       <c r="E150" t="n">
-        <v>949</v>
+        <v>852</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6438,10 +6438,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>22900000</v>
+        <v>13700000</v>
       </c>
       <c r="E151" t="n">
-        <v>21200</v>
+        <v>22300</v>
       </c>
       <c r="F151" t="n">
         <v>260</v>
@@ -6477,10 +6477,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>20700000</v>
+        <v>13800000</v>
       </c>
       <c r="E152" t="n">
-        <v>51500</v>
+        <v>63400</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>14300000</v>
+        <v>11200000</v>
       </c>
       <c r="E153" t="n">
-        <v>8860</v>
+        <v>9170</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>19200000</v>
+        <v>10700000</v>
       </c>
       <c r="E154" t="n">
-        <v>12800</v>
+        <v>11500</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6603,10 +6603,10 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>5840000</v>
+        <v>5150000</v>
       </c>
       <c r="E155" t="n">
-        <v>13300</v>
+        <v>14900</v>
       </c>
       <c r="F155" t="n">
         <v>70</v>
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1030000</v>
+        <v>987000</v>
       </c>
       <c r="E156" t="n">
-        <v>1940</v>
+        <v>1570</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -6681,10 +6681,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>27100000</v>
+        <v>28200000</v>
       </c>
       <c r="E157" t="n">
-        <v>14900</v>
+        <v>21000</v>
       </c>
       <c r="F157" t="n">
         <v>590</v>
@@ -6720,10 +6720,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>200000000</v>
+        <v>108000000</v>
       </c>
       <c r="E158" t="n">
-        <v>75500</v>
+        <v>73700</v>
       </c>
       <c r="F158" t="n">
         <v>6600</v>
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>252000000</v>
+        <v>160000000</v>
       </c>
       <c r="E159" t="n">
-        <v>7810</v>
+        <v>11000</v>
       </c>
       <c r="F159" t="n">
         <v>2900</v>
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>112000000</v>
+        <v>63000000</v>
       </c>
       <c r="E160" t="n">
-        <v>14700</v>
+        <v>30100</v>
       </c>
       <c r="F160" t="n">
         <v>1300</v>
@@ -6838,10 +6838,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>68100000</v>
+        <v>45300000</v>
       </c>
       <c r="E161" t="n">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="F161" t="n">
         <v>480</v>
@@ -6969,10 +6969,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>319000000</v>
+        <v>151000000</v>
       </c>
       <c r="E164" t="n">
-        <v>101000</v>
+        <v>94300</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>68400000</v>
+        <v>51000000</v>
       </c>
       <c r="E165" t="n">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -7050,10 +7050,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>20900000</v>
+        <v>14400000</v>
       </c>
       <c r="E166" t="n">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -7089,10 +7089,10 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>80200000</v>
+        <v>32500000</v>
       </c>
       <c r="E167" t="n">
-        <v>821</v>
+        <v>902</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -7128,10 +7128,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>14700000</v>
+        <v>12100000</v>
       </c>
       <c r="E168" t="n">
-        <v>14100</v>
+        <v>15500</v>
       </c>
       <c r="F168" t="n">
         <v>590</v>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>37100000</v>
+        <v>25300000</v>
       </c>
       <c r="E169" t="n">
-        <v>21500</v>
+        <v>20300</v>
       </c>
       <c r="F169" t="n">
         <v>110</v>
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>23200000</v>
+        <v>16500000</v>
       </c>
       <c r="E170" t="n">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="F170" t="n">
         <v>30</v>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>179000000</v>
+        <v>79100000</v>
       </c>
       <c r="E171" t="n">
-        <v>37700</v>
+        <v>39800</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7288,10 +7288,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>22200000</v>
+        <v>14700000</v>
       </c>
       <c r="E172" t="n">
-        <v>3620</v>
+        <v>3490</v>
       </c>
       <c r="F172" t="n">
         <v>1300</v>
@@ -7327,10 +7327,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>22800000</v>
+        <v>15300000</v>
       </c>
       <c r="E173" t="n">
-        <v>554</v>
+        <v>450</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7369,10 +7369,10 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3930000</v>
+        <v>3700000</v>
       </c>
       <c r="E174" t="n">
-        <v>10800</v>
+        <v>13100</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7411,10 +7411,10 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>24800000</v>
+        <v>16300000</v>
       </c>
       <c r="E175" t="n">
-        <v>21000</v>
+        <v>25200</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7453,10 +7453,10 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>7070000</v>
+        <v>6430000</v>
       </c>
       <c r="E176" t="n">
-        <v>1040</v>
+        <v>934</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2500000</v>
+        <v>2110000</v>
       </c>
       <c r="E179" t="n">
-        <v>3360</v>
+        <v>1350</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7627,10 +7627,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1270000</v>
+        <v>1170000</v>
       </c>
       <c r="E180" t="n">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1190000</v>
+        <v>1130000</v>
       </c>
       <c r="E181" t="n">
         <v>36</v>
@@ -7705,10 +7705,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1600000</v>
+        <v>1160000</v>
       </c>
       <c r="E182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>151000000</v>
+        <v>78500000</v>
       </c>
       <c r="E183" t="n">
-        <v>15400</v>
+        <v>14200</v>
       </c>
       <c r="F183" t="n">
         <v>2900</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>8510000</v>
+        <v>7410000</v>
       </c>
       <c r="E184" t="n">
-        <v>3590</v>
+        <v>3400</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7825,10 +7825,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>10400000</v>
+        <v>8900000</v>
       </c>
       <c r="E185" t="n">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>6210000</v>
+        <v>8130000</v>
       </c>
       <c r="E186" t="n">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7909,10 +7909,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1090000</v>
+        <v>828000</v>
       </c>
       <c r="E187" t="n">
-        <v>21200</v>
+        <v>15900</v>
       </c>
       <c r="F187" t="n">
         <v>20</v>
@@ -8038,10 +8038,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>4800000</v>
+        <v>4080000</v>
       </c>
       <c r="E190" t="n">
-        <v>16700</v>
+        <v>13800</v>
       </c>
       <c r="F190" t="n">
         <v>170</v>
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5860000</v>
+        <v>4700000</v>
       </c>
       <c r="E191" t="n">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8119,10 +8119,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>7070000</v>
+        <v>5460000</v>
       </c>
       <c r="E192" t="n">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="F192" t="n">
         <v>20</v>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4880000</v>
+        <v>5490000</v>
       </c>
       <c r="E193" t="n">
-        <v>18400</v>
+        <v>17000</v>
       </c>
       <c r="F193" t="n">
         <v>50</v>
@@ -8197,10 +8197,10 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5450000</v>
+        <v>4790000</v>
       </c>
       <c r="E194" t="n">
-        <v>15100</v>
+        <v>20800</v>
       </c>
       <c r="F194" t="n">
         <v>110</v>
@@ -8236,10 +8236,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>4710000</v>
+        <v>4830000</v>
       </c>
       <c r="E195" t="n">
-        <v>9340</v>
+        <v>9850</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -8278,10 +8278,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>65900000</v>
+        <v>27600000</v>
       </c>
       <c r="E196" t="n">
-        <v>33600</v>
+        <v>27300</v>
       </c>
       <c r="F196" t="n">
         <v>4400</v>
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9050000</v>
+        <v>9080000</v>
       </c>
       <c r="E197" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -8356,10 +8356,10 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6970000</v>
+        <v>4960000</v>
       </c>
       <c r="E198" t="n">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>10700000</v>
+        <v>8070000</v>
       </c>
       <c r="E199" t="n">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8434,10 +8434,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6200000</v>
+        <v>5490000</v>
       </c>
       <c r="E200" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5400000</v>
+        <v>4600000</v>
       </c>
       <c r="E201" t="n">
-        <v>6440</v>
+        <v>7140</v>
       </c>
       <c r="F201" t="n">
         <v>90</v>
@@ -8512,10 +8512,10 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6090000</v>
+        <v>4770000</v>
       </c>
       <c r="E202" t="n">
-        <v>6600</v>
+        <v>7930</v>
       </c>
       <c r="F202" t="n">
         <v>50</v>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>5710000</v>
+        <v>3990000</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>4410000</v>
+        <v>3290000</v>
       </c>
       <c r="E204" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -8629,10 +8629,10 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3730000</v>
+        <v>3260000</v>
       </c>
       <c r="E205" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2850000</v>
+        <v>2950000</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
